--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Outputs/Distance Matrix/outputDM.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Outputs/Distance Matrix/outputDM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458883" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591171" uniqueCount="70">
   <si>
     <t>PPED_P2</t>
   </si>
